--- a/trunk/03.Documents/TasksheetFinal.xlsx
+++ b/trunk/03.Documents/TasksheetFinal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\ms-website\03.Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>No.</t>
   </si>
@@ -645,26 +645,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,10 +1017,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="39">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1036,8 +1036,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1051,8 +1051,8 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1066,8 +1066,8 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +1081,8 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1096,8 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1111,10 +1111,10 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="40">
+      <c r="A8" s="45">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1130,8 +1130,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1145,8 +1145,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1175,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1190,10 +1190,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="40">
+      <c r="A13" s="45">
         <v>3</v>
       </c>
-      <c r="B13" s="42"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="29" t="s">
         <v>34</v>
       </c>
@@ -1205,8 +1205,8 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="28" t="s">
         <v>65</v>
       </c>
@@ -1218,8 +1218,8 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="28" t="s">
         <v>66</v>
       </c>
@@ -1231,8 +1231,8 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="28" t="s">
         <v>67</v>
       </c>
@@ -1244,8 +1244,8 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="28" t="s">
         <v>59</v>
       </c>
@@ -1257,8 +1257,8 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="29" t="s">
         <v>68</v>
       </c>
@@ -1270,8 +1270,8 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="28" t="s">
         <v>69</v>
       </c>
@@ -1283,8 +1283,8 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="28" t="s">
         <v>59</v>
       </c>
@@ -1296,8 +1296,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="29" t="s">
         <v>35</v>
       </c>
@@ -1309,8 +1309,8 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="28" t="s">
         <v>70</v>
       </c>
@@ -1322,8 +1322,8 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="28" t="s">
         <v>71</v>
       </c>
@@ -1335,8 +1335,8 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="28" t="s">
         <v>72</v>
       </c>
@@ -1347,8 +1347,8 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="28" t="s">
         <v>73</v>
       </c>
@@ -1360,8 +1360,8 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="28" t="s">
         <v>74</v>
       </c>
@@ -1373,8 +1373,8 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
@@ -1386,8 +1386,8 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="28" t="s">
         <v>76</v>
       </c>
@@ -1399,8 +1399,8 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="28" t="s">
         <v>59</v>
       </c>
@@ -1412,8 +1412,8 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="29" t="s">
         <v>77</v>
       </c>
@@ -1425,8 +1425,8 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="28" t="s">
         <v>78</v>
       </c>
@@ -1438,8 +1438,8 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="28" t="s">
         <v>79</v>
       </c>
@@ -1451,8 +1451,8 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="28" t="s">
         <v>60</v>
       </c>
@@ -1464,8 +1464,8 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="28" t="s">
         <v>80</v>
       </c>
@@ -1477,8 +1477,8 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="28" t="s">
         <v>81</v>
       </c>
@@ -1490,8 +1490,8 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="28" t="s">
         <v>82</v>
       </c>
@@ -1503,8 +1503,8 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="28" t="s">
         <v>59</v>
       </c>
@@ -1516,8 +1516,8 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="29" t="s">
         <v>83</v>
       </c>
@@ -1529,8 +1529,8 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="38" t="s">
         <v>73</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="40"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="38" t="s">
         <v>75</v>
       </c>
@@ -1555,8 +1555,8 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="38" t="s">
         <v>76</v>
       </c>
@@ -1568,8 +1568,8 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="38" t="s">
         <v>59</v>
       </c>
@@ -1581,8 +1581,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="40"/>
-      <c r="B43" s="42"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="29" t="s">
         <v>84</v>
       </c>
@@ -1594,8 +1594,8 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="38" t="s">
         <v>85</v>
       </c>
@@ -1607,8 +1607,8 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="38" t="s">
         <v>86</v>
       </c>
@@ -1620,8 +1620,8 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="38" t="s">
         <v>73</v>
       </c>
@@ -1633,8 +1633,8 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="40"/>
-      <c r="B47" s="42"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="38" t="s">
         <v>87</v>
       </c>
@@ -1646,8 +1646,8 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="40"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="29" t="s">
         <v>88</v>
       </c>
@@ -1659,8 +1659,8 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="40"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="43"/>
       <c r="C49" s="38" t="s">
         <v>89</v>
       </c>
@@ -1672,8 +1672,8 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="43"/>
       <c r="C50" s="38" t="s">
         <v>90</v>
       </c>
@@ -1685,8 +1685,8 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="40"/>
-      <c r="B51" s="42"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="43"/>
       <c r="C51" s="38" t="s">
         <v>91</v>
       </c>
@@ -1698,8 +1698,8 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="40"/>
-      <c r="B52" s="42"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="6" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1713,8 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="40"/>
-      <c r="B53" s="42"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
@@ -1728,8 +1728,8 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="40"/>
-      <c r="B54" s="42"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="43"/>
       <c r="C54" s="6" t="s">
         <v>38</v>
       </c>
@@ -1743,10 +1743,10 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="41">
+      <c r="A55" s="42">
         <v>4</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -1760,8 +1760,8 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="8" t="s">
         <v>40</v>
       </c>
@@ -1775,8 +1775,8 @@
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="8" t="s">
         <v>10</v>
       </c>
@@ -1790,8 +1790,8 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="7" t="s">
         <v>11</v>
       </c>
@@ -1805,8 +1805,8 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="8" t="s">
         <v>41</v>
       </c>
@@ -1818,8 +1818,8 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="25" t="s">
         <v>42</v>
       </c>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="30"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="25"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="20"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="22" t="s">
         <v>12</v>
       </c>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="20"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="21"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="20"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="23" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="20"/>
-      <c r="B65" s="42"/>
+      <c r="B65" s="43"/>
       <c r="C65" s="24" t="s">
         <v>93</v>
       </c>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="33"/>
-      <c r="B66" s="42"/>
+      <c r="B66" s="43"/>
       <c r="C66" s="24" t="s">
         <v>44</v>
       </c>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="33"/>
-      <c r="B67" s="42"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="24" t="s">
         <v>94</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="A68" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="42"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="24" t="s">
         <v>95</v>
       </c>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="33"/>
-      <c r="B69" s="42"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="24" t="s">
         <v>96</v>
       </c>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="20"/>
-      <c r="B70" s="42"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="23" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="20"/>
-      <c r="B71" s="42"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="24" t="s">
         <v>46</v>
       </c>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="20"/>
-      <c r="B72" s="42"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="23" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="20"/>
-      <c r="B73" s="42"/>
+      <c r="B73" s="43"/>
       <c r="C73" s="24" t="s">
         <v>92</v>
       </c>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="20"/>
-      <c r="B74" s="39"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="27" t="s">
         <v>46</v>
       </c>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="20"/>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -2038,10 +2038,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A76" s="43">
+      <c r="A76" s="39">
         <v>5</v>
       </c>
-      <c r="B76" s="42"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="8" t="s">
         <v>47</v>
       </c>
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A77" s="44"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="8" t="s">
         <v>108</v>
       </c>
@@ -2074,8 +2074,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="44"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="8" t="s">
         <v>109</v>
       </c>
@@ -2091,8 +2091,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="44"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="8" t="s">
         <v>110</v>
       </c>
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="44"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="8" t="s">
         <v>111</v>
       </c>
@@ -2125,8 +2125,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="44"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="8" t="s">
         <v>112</v>
       </c>
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="44"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="8" t="s">
         <v>113</v>
       </c>
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="44"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="43"/>
       <c r="C83" s="8" t="s">
         <v>114</v>
       </c>
@@ -2176,8 +2176,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="44"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="43"/>
       <c r="C84" s="8" t="s">
         <v>115</v>
       </c>
@@ -2193,8 +2193,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="44"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="40"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="8" t="s">
         <v>82</v>
       </c>
@@ -2210,8 +2210,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="44"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="40"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="8" t="s">
         <v>81</v>
       </c>
@@ -2225,8 +2225,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="44"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="40"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="8" t="s">
         <v>116</v>
       </c>
@@ -2242,8 +2242,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="44"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="40"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="35" t="s">
         <v>106</v>
       </c>
@@ -2259,8 +2259,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="44"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="40"/>
+      <c r="B89" s="43"/>
       <c r="C89" s="8" t="s">
         <v>107</v>
       </c>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="44"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="40"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="8" t="s">
         <v>91</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="44"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="40"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="8" t="s">
         <v>117</v>
       </c>
@@ -2310,8 +2310,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="44"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="9" t="s">
         <v>49</v>
       </c>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="19"/>
-      <c r="B93" s="42"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="27" t="s">
         <v>50</v>
       </c>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="34"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="8" t="s">
         <v>51</v>
       </c>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="34"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="8" t="s">
         <v>102</v>
       </c>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="34"/>
-      <c r="B96" s="42"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="8" t="s">
         <v>52</v>
       </c>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="19"/>
-      <c r="B97" s="42"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="8" t="s">
         <v>103</v>
       </c>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="19"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="43"/>
       <c r="C98" s="8" t="s">
         <v>104</v>
       </c>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="19"/>
-      <c r="B99" s="42"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="8" t="s">
         <v>105</v>
       </c>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="19"/>
-      <c r="B100" s="39"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="27" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="19"/>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -2452,10 +2452,10 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="43">
-        <v>6</v>
-      </c>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39">
+        <v>6</v>
+      </c>
+      <c r="B102" s="43"/>
       <c r="C102" s="8" t="s">
         <v>53</v>
       </c>
@@ -2469,8 +2469,8 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="44"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="43"/>
       <c r="C103" s="25" t="s">
         <v>55</v>
       </c>
@@ -2482,23 +2482,23 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="44"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="40"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="44"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="43"/>
       <c r="C105" s="27" t="s">
         <v>57</v>
       </c>
@@ -2510,57 +2510,59 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="44"/>
-      <c r="B106" s="42"/>
+      <c r="A106" s="40"/>
+      <c r="B106" s="43"/>
       <c r="C106" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="44"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="26" t="s">
         <v>98</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="44"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="40"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="44"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="40"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -2568,25 +2570,29 @@
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="44"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="40"/>
+      <c r="B110" s="43"/>
       <c r="C110" s="26" t="s">
         <v>100</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="44"/>
-      <c r="B111" s="39"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -2594,7 +2600,7 @@
       <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="45"/>
+      <c r="A112" s="41"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -2675,21 +2681,21 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A13:A54"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B54"/>
     <mergeCell ref="A102:A112"/>
     <mergeCell ref="B101:B111"/>
     <mergeCell ref="A76:A92"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="B55:B74"/>
     <mergeCell ref="B75:B100"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A13:A54"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B54"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E50 G2:G13 G17:G18 D24 D2:E23 G20:G68 D52:D73 F92:G92 F93:F96 F108:F110 F111:G114 F97:G105 G106:G107 D100:E106 D108:E114 E107:F107 F2:F91 G70:G91 D75:D99 E51:E98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E50 G2:G13 G17:G18 D24 D2:E23 G20:G68 D52:D73 F92:G92 F93:F96 F111:G114 F97:G105 G106:G108 E51:E98 F2:F91 G70:G91 D75:D99 D100:E114 F107:F110">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/03.Documents/TasksheetFinal.xlsx
+++ b/trunk/03.Documents/TasksheetFinal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>No.</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>View Profile</t>
-  </si>
-  <si>
-    <t>Manage post time</t>
   </si>
   <si>
     <t>Manage fee</t>
@@ -551,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,9 +594,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -623,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,12 +630,21 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,18 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B95" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,10 +1005,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="44">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="36" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1036,8 +1024,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1051,8 +1039,8 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1066,8 +1054,8 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1081,8 +1069,8 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1084,8 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1111,10 +1099,10 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="45">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1130,8 +1118,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="45"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1145,8 +1133,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="45"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1160,8 +1148,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="45"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1163,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1190,11 +1178,11 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="45">
+      <c r="A13" s="37">
         <v>3</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2"/>
@@ -1205,48 +1193,54 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="28" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="2"/>
@@ -1257,9 +1251,9 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="45"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="2"/>
@@ -1270,22 +1264,24 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="45"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="45"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="27" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="2"/>
@@ -1296,9 +1292,9 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="45"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="2"/>
@@ -1309,87 +1305,100 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="45"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="45"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="28" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="45"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="45"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="45"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="27" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="45"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="28" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="45"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="28" t="s">
-        <v>76</v>
+      <c r="A28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1399,10 +1408,10 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="45"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1412,12 +1421,14 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1425,12 +1436,14 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="45"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1438,12 +1451,14 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="45"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1451,12 +1466,14 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="45"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1464,12 +1481,14 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="45"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1477,12 +1496,14 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="45"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1490,10 +1511,10 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="45"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="28" t="s">
-        <v>82</v>
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1503,10 +1524,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="45"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="28" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1516,49 +1537,55 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="45"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="29" t="s">
-        <v>83</v>
+      <c r="A38" s="37"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="35" t="s">
+        <v>72</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="45"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="38" t="s">
-        <v>73</v>
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="45"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="38" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="35" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="38" t="s">
-        <v>76</v>
+      <c r="A41" s="37"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1568,10 +1595,10 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="38" t="s">
-        <v>59</v>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1581,38 +1608,44 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="45"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="45"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="38" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="35" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="45"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1620,12 +1653,14 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="45"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1633,9 +1668,9 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="45"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="38" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D47" s="2"/>
@@ -1646,12 +1681,14 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="45"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="29" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1659,12 +1696,14 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="45"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="38" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -1672,12 +1711,14 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="45"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="38" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1685,12 +1726,14 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="45"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="18"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -1698,10 +1741,10 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="45"/>
-      <c r="B52" s="43"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1713,10 +1756,10 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="45"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1727,32 +1770,32 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="45"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A54" s="38">
+        <v>4</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A55" s="42">
-        <v>4</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2"/>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1760,80 +1803,86 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="2"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="8" t="s">
-        <v>41</v>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="25" t="s">
-        <v>42</v>
+      <c r="A60" s="20"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="30"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1843,35 +1892,43 @@
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="20"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="22" t="s">
-        <v>12</v>
+      <c r="B62" s="39"/>
+      <c r="C62" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="20"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="20"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1879,38 +1936,42 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="20"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="24" t="s">
-        <v>93</v>
+      <c r="A65" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="33"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="2"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="33"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="24" t="s">
-        <v>94</v>
+      <c r="A67" s="20"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1920,14 +1981,14 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -1935,27 +1996,27 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="33"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A69" s="20"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="18"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="20"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -1964,125 +2025,133 @@
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="20"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="24" t="s">
+      <c r="B71" s="36"/>
+      <c r="C71" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="20"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="23" t="s">
-        <v>15</v>
+      <c r="B72" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="20"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="I72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A73" s="40">
+        <v>5</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="20"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="27" t="s">
-        <v>46</v>
+      <c r="I73" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A74" s="41"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A75" s="20"/>
-      <c r="B75" s="42" t="s">
-        <v>16</v>
-      </c>
+      <c r="I74" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75">
+      <c r="A75" s="41"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G75" s="2"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A76" s="39">
-        <v>5</v>
-      </c>
-      <c r="B76" s="43"/>
+    <row r="76" spans="1:9" ht="15.75">
+      <c r="A76" s="41"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75">
+      <c r="A77" s="41"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="11"/>
@@ -2091,15 +2160,15 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="11"/>
@@ -2108,83 +2177,81 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="40"/>
-      <c r="B80" s="43"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="40"/>
-      <c r="B81" s="43"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="11"/>
@@ -2193,10 +2260,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="8" t="s">
-        <v>82</v>
+      <c r="A85" s="41"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2204,172 +2271,174 @@
       <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11">
-        <v>3</v>
+      <c r="H85" s="30"/>
+      <c r="I85" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="40"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="2"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="32"/>
-      <c r="I88" s="36">
-        <v>2</v>
+      <c r="G88" s="2"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="40"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D89" s="2"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="11"/>
-      <c r="I89" s="11">
-        <v>2</v>
-      </c>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A90" s="19"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="11"/>
-      <c r="I90" s="11">
-        <v>2</v>
-      </c>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H91" s="11"/>
-      <c r="I91" s="11">
-        <v>5</v>
-      </c>
+      <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="40"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A92" s="32"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="19"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="27" t="s">
-        <v>50</v>
+      <c r="A93" s="32"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="34"/>
-      <c r="B94" s="43"/>
+      <c r="A94" s="19"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="34"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="34"/>
-      <c r="B96" s="43"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -2378,39 +2447,41 @@
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="19"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="8" t="s">
-        <v>103</v>
+      <c r="B97" s="36"/>
+      <c r="C97" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="19"/>
-      <c r="B98" s="43"/>
+      <c r="B98" s="38" t="s">
+        <v>5</v>
+      </c>
       <c r="C98" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="19"/>
-      <c r="B99" s="43"/>
+      <c r="A99" s="40">
+        <v>6</v>
+      </c>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -2422,10 +2493,10 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="19"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="27" t="s">
-        <v>13</v>
+      <c r="A100" s="41"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="24" t="s">
+        <v>55</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2435,12 +2506,10 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="19"/>
-      <c r="B101" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>54</v>
+      <c r="A101" s="41"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
@@ -2452,16 +2521,12 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="39">
-        <v>6</v>
-      </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A102" s="41"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -2469,66 +2534,70 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="40"/>
-      <c r="B103" s="43"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="25" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="40"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="2"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="40"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="27" t="s">
-        <v>57</v>
+      <c r="A105" s="41"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="40"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D106" s="2"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="G106" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G106" s="2"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="40"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="26" t="s">
-        <v>98</v>
+      <c r="A107" s="41"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
@@ -2540,77 +2609,70 @@
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="40"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="2"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="G108" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G108" s="2"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="40"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="40"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-    </row>
-    <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="40"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="41"/>
-      <c r="C112" s="1"/>
+    <row r="109" spans="1:9">
+      <c r="A109" s="42"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="B110" s="18"/>
+      <c r="C110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="B111" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" ht="60">
+      <c r="B112" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="18">
+        <v>1</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="2:9">
-      <c r="C113" s="4" t="s">
-        <v>20</v>
+    <row r="113" spans="2:9" ht="30">
+      <c r="B113" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="18">
+        <v>2</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -2618,84 +2680,47 @@
       <c r="G113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="2:9" ht="60">
+    <row r="114" spans="2:9" ht="30">
+      <c r="B114" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" ht="30">
       <c r="B115" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C115" s="18">
-        <v>1</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="I115" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="116" spans="2:9" ht="30">
       <c r="B116" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="18">
-        <v>2</v>
-      </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="2:9" ht="30">
-      <c r="B117" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" ht="30">
-      <c r="B118" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" ht="30">
-      <c r="B119" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C119" s="31">
+      <c r="C116" s="29">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A99:A109"/>
+    <mergeCell ref="B98:B108"/>
+    <mergeCell ref="A73:A89"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B71"/>
+    <mergeCell ref="B72:B97"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A13:A54"/>
+    <mergeCell ref="A13:A53"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B54"/>
-    <mergeCell ref="A102:A112"/>
-    <mergeCell ref="B101:B111"/>
-    <mergeCell ref="A76:A92"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="B75:B100"/>
+    <mergeCell ref="B12:B53"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25:E50 G2:G13 G17:G18 D24 D2:E23 G20:G68 D52:D73 F92:G92 F93:F96 F111:G114 F97:G105 G106:G108 E51:E98 F2:F91 G70:G91 D75:D99 D100:E114 F107:F110">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E95 F89:G89 F108:G111 F94:G102 G103:G105 F104:F107 G67:G88 D72:D96 D97:E111 G91:G93 F90:F93 D49:D70 D2:E48 F2:F88 G2:G65">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/03.Documents/TasksheetFinal.xlsx
+++ b/trunk/03.Documents/TasksheetFinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\ms-website\03.Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ms-website\03.Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -633,26 +633,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="36">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1024,8 +1024,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1039,8 +1039,8 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1054,8 +1054,8 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1069,8 +1069,8 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1084,8 +1084,8 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1099,10 +1099,10 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="37">
+      <c r="A8" s="42">
         <v>2</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1118,8 +1118,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1148,8 +1148,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1163,8 +1163,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1178,10 +1178,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="42">
         <v>3</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="28" t="s">
         <v>34</v>
       </c>
@@ -1193,8 +1193,8 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="27" t="s">
         <v>65</v>
       </c>
@@ -1208,8 +1208,8 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="27" t="s">
         <v>66</v>
       </c>
@@ -1223,8 +1223,8 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="27" t="s">
         <v>67</v>
       </c>
@@ -1238,8 +1238,8 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="27" t="s">
         <v>59</v>
       </c>
@@ -1251,8 +1251,8 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="28" t="s">
         <v>68</v>
       </c>
@@ -1264,8 +1264,8 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="27" t="s">
         <v>69</v>
       </c>
@@ -1279,8 +1279,8 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="27" t="s">
         <v>59</v>
       </c>
@@ -1292,8 +1292,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="28" t="s">
         <v>35</v>
       </c>
@@ -1305,8 +1305,8 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="27" t="s">
         <v>70</v>
       </c>
@@ -1320,8 +1320,8 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="27" t="s">
         <v>71</v>
       </c>
@@ -1335,8 +1335,8 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="27" t="s">
         <v>72</v>
       </c>
@@ -1350,8 +1350,8 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="27" t="s">
         <v>73</v>
       </c>
@@ -1365,8 +1365,8 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="27" t="s">
         <v>74</v>
       </c>
@@ -1380,8 +1380,8 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="27" t="s">
         <v>75</v>
       </c>
@@ -1395,8 +1395,8 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="27" t="s">
         <v>59</v>
       </c>
@@ -1408,8 +1408,8 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="37"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="28" t="s">
         <v>76</v>
       </c>
@@ -1421,8 +1421,8 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="27" t="s">
         <v>77</v>
       </c>
@@ -1436,8 +1436,8 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="27" t="s">
         <v>78</v>
       </c>
@@ -1451,8 +1451,8 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="37"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="27" t="s">
         <v>60</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="27" t="s">
         <v>79</v>
       </c>
@@ -1481,8 +1481,8 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="27" t="s">
         <v>80</v>
       </c>
@@ -1496,8 +1496,8 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="27" t="s">
         <v>81</v>
       </c>
@@ -1511,8 +1511,8 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="27" t="s">
         <v>59</v>
       </c>
@@ -1524,8 +1524,8 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="37"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="28" t="s">
         <v>82</v>
       </c>
@@ -1537,8 +1537,8 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="37"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="35" t="s">
         <v>72</v>
       </c>
@@ -1552,8 +1552,8 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="35" t="s">
         <v>74</v>
       </c>
@@ -1567,8 +1567,8 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="35" t="s">
         <v>75</v>
       </c>
@@ -1582,8 +1582,8 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
@@ -1595,8 +1595,8 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="28" t="s">
         <v>83</v>
       </c>
@@ -1608,8 +1608,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="35" t="s">
         <v>84</v>
       </c>
@@ -1623,8 +1623,8 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="35" t="s">
         <v>85</v>
       </c>
@@ -1638,8 +1638,8 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="35" t="s">
         <v>72</v>
       </c>
@@ -1653,8 +1653,8 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="35" t="s">
         <v>86</v>
       </c>
@@ -1668,8 +1668,8 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="28" t="s">
         <v>87</v>
       </c>
@@ -1681,8 +1681,8 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="35" t="s">
         <v>88</v>
       </c>
@@ -1696,8 +1696,8 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="35" t="s">
         <v>89</v>
       </c>
@@ -1711,8 +1711,8 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="40"/>
       <c r="C50" s="35" t="s">
         <v>90</v>
       </c>
@@ -1726,8 +1726,8 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="6" t="s">
         <v>36</v>
       </c>
@@ -1741,8 +1741,8 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
@@ -1756,8 +1756,8 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="6" t="s">
         <v>38</v>
       </c>
@@ -1771,10 +1771,10 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="38">
+      <c r="A54" s="39">
         <v>4</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="39" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -1788,8 +1788,8 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="8" t="s">
         <v>40</v>
       </c>
@@ -1803,8 +1803,8 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
@@ -1818,8 +1818,8 @@
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
@@ -1833,8 +1833,8 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="8" t="s">
         <v>41</v>
       </c>
@@ -1848,8 +1848,8 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="24" t="s">
         <v>42</v>
       </c>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="20"/>
-      <c r="B60" s="39"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="21" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="20"/>
-      <c r="B61" s="39"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="22" t="s">
         <v>43</v>
       </c>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="20"/>
-      <c r="B62" s="39"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="23" t="s">
         <v>92</v>
       </c>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="31"/>
-      <c r="B63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="23" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="31"/>
-      <c r="B64" s="39"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="23" t="s">
         <v>93</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="A65" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="39"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="23" t="s">
         <v>94</v>
       </c>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="31"/>
-      <c r="B66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="23" t="s">
         <v>95</v>
       </c>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="20"/>
-      <c r="B67" s="39"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="22" t="s">
         <v>45</v>
       </c>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="20"/>
-      <c r="B68" s="39"/>
+      <c r="B68" s="40"/>
       <c r="C68" s="23" t="s">
         <v>46</v>
       </c>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="20"/>
-      <c r="B69" s="39"/>
+      <c r="B69" s="40"/>
       <c r="C69" s="22" t="s">
         <v>15</v>
       </c>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="20"/>
-      <c r="B70" s="39"/>
+      <c r="B70" s="40"/>
       <c r="C70" s="23" t="s">
         <v>91</v>
       </c>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="20"/>
-      <c r="B71" s="36"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="26" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="20"/>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -2056,10 +2056,10 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A73" s="40">
+      <c r="A73" s="36">
         <v>5</v>
       </c>
-      <c r="B73" s="39"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="8" t="s">
         <v>47</v>
       </c>
@@ -2075,8 +2075,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A74" s="41"/>
-      <c r="B74" s="39"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="8" t="s">
         <v>107</v>
       </c>
@@ -2092,8 +2092,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="41"/>
-      <c r="B75" s="39"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
       <c r="C75" s="8" t="s">
         <v>108</v>
       </c>
@@ -2109,8 +2109,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="41"/>
-      <c r="B76" s="39"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
       <c r="C76" s="8" t="s">
         <v>109</v>
       </c>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="41"/>
-      <c r="B77" s="39"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
       <c r="C77" s="8" t="s">
         <v>110</v>
       </c>
@@ -2143,8 +2143,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="41"/>
-      <c r="B78" s="39"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="40"/>
       <c r="C78" s="8" t="s">
         <v>111</v>
       </c>
@@ -2160,8 +2160,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="41"/>
-      <c r="B79" s="39"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="40"/>
       <c r="C79" s="8" t="s">
         <v>112</v>
       </c>
@@ -2177,8 +2177,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="41"/>
-      <c r="B80" s="39"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="8" t="s">
         <v>113</v>
       </c>
@@ -2194,8 +2194,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="41"/>
-      <c r="B81" s="39"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="40"/>
       <c r="C81" s="8" t="s">
         <v>114</v>
       </c>
@@ -2211,8 +2211,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="41"/>
-      <c r="B82" s="39"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="40"/>
       <c r="C82" s="8" t="s">
         <v>81</v>
       </c>
@@ -2228,8 +2228,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="41"/>
-      <c r="B83" s="39"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="40"/>
       <c r="C83" s="8" t="s">
         <v>80</v>
       </c>
@@ -2243,8 +2243,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="41"/>
-      <c r="B84" s="39"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="40"/>
       <c r="C84" s="8" t="s">
         <v>115</v>
       </c>
@@ -2260,8 +2260,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="41"/>
-      <c r="B85" s="39"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="40"/>
       <c r="C85" s="33" t="s">
         <v>105</v>
       </c>
@@ -2277,8 +2277,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="41"/>
-      <c r="B86" s="39"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
       <c r="C86" s="8" t="s">
         <v>106</v>
       </c>
@@ -2294,8 +2294,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="41"/>
-      <c r="B87" s="39"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="8" t="s">
         <v>90</v>
       </c>
@@ -2311,8 +2311,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="41"/>
-      <c r="B88" s="39"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="40"/>
       <c r="C88" s="8" t="s">
         <v>116</v>
       </c>
@@ -2328,8 +2328,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="41"/>
-      <c r="B89" s="39"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="40"/>
       <c r="C89" s="9" t="s">
         <v>49</v>
       </c>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="19"/>
-      <c r="B90" s="39"/>
+      <c r="B90" s="40"/>
       <c r="C90" s="26" t="s">
         <v>50</v>
       </c>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="32"/>
-      <c r="B91" s="39"/>
+      <c r="B91" s="40"/>
       <c r="C91" s="8" t="s">
         <v>51</v>
       </c>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="32"/>
-      <c r="B92" s="39"/>
+      <c r="B92" s="40"/>
       <c r="C92" s="8" t="s">
         <v>101</v>
       </c>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="32"/>
-      <c r="B93" s="39"/>
+      <c r="B93" s="40"/>
       <c r="C93" s="8" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="19"/>
-      <c r="B94" s="39"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="8" t="s">
         <v>102</v>
       </c>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="19"/>
-      <c r="B95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>103</v>
       </c>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="19"/>
-      <c r="B96" s="39"/>
+      <c r="B96" s="40"/>
       <c r="C96" s="8" t="s">
         <v>104</v>
       </c>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="19"/>
-      <c r="B97" s="36"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="26" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="19"/>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -2476,10 +2476,10 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="40">
-        <v>6</v>
-      </c>
-      <c r="B99" s="39"/>
+      <c r="A99" s="36">
+        <v>6</v>
+      </c>
+      <c r="B99" s="40"/>
       <c r="C99" s="8" t="s">
         <v>53</v>
       </c>
@@ -2493,8 +2493,8 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="41"/>
-      <c r="B100" s="39"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="40"/>
       <c r="C100" s="24" t="s">
         <v>55</v>
       </c>
@@ -2506,8 +2506,8 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="41"/>
-      <c r="B101" s="39"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="25" t="s">
         <v>56</v>
       </c>
@@ -2521,8 +2521,8 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="41"/>
-      <c r="B102" s="39"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="40"/>
       <c r="C102" s="26" t="s">
         <v>57</v>
       </c>
@@ -2534,8 +2534,8 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="41"/>
-      <c r="B103" s="39"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="40"/>
       <c r="C103" s="25" t="s">
         <v>96</v>
       </c>
@@ -2549,8 +2549,8 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="41"/>
-      <c r="B104" s="39"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
       <c r="C104" s="25" t="s">
         <v>97</v>
       </c>
@@ -2564,8 +2564,8 @@
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="41"/>
-      <c r="B105" s="39"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="25" t="s">
         <v>58</v>
       </c>
@@ -2579,8 +2579,8 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="41"/>
-      <c r="B106" s="39"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="40"/>
       <c r="C106" s="25" t="s">
         <v>98</v>
       </c>
@@ -2594,8 +2594,8 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="41"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="25" t="s">
         <v>99</v>
       </c>
@@ -2609,8 +2609,8 @@
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="41"/>
-      <c r="B108" s="36"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="41"/>
       <c r="C108" s="25" t="s">
         <v>100</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="42"/>
+      <c r="A109" s="38"/>
       <c r="C109" s="1"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -2685,7 +2685,7 @@
         <v>22</v>
       </c>
       <c r="C114" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="30">
@@ -2706,18 +2706,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A13:A53"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B53"/>
     <mergeCell ref="A99:A109"/>
     <mergeCell ref="B98:B108"/>
     <mergeCell ref="A73:A89"/>
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="B54:B71"/>
     <mergeCell ref="B72:B97"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A13:A53"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B53"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E95 F89:G89 F108:G111 F94:G102 G103:G105 F104:F107 G67:G88 D72:D96 D97:E111 G91:G93 F90:F93 D49:D70 D2:E48 F2:F88 G2:G65">

--- a/trunk/03.Documents/TasksheetFinal.xlsx
+++ b/trunk/03.Documents/TasksheetFinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ms-website\03.Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\ms-website\03.Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Algorithms</t>
   </si>
   <si>
-    <t>Report 5 - Software Implementation and Test Document</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Register</t>
-  </si>
-  <si>
     <t>Database Relationship Diagram</t>
   </si>
   <si>
@@ -338,47 +332,146 @@
     <t>Webmaster Test Case</t>
   </si>
   <si>
-    <t>Comment job request</t>
-  </si>
-  <si>
-    <t>Rate job request</t>
-  </si>
-  <si>
-    <t>Advanced Search</t>
-  </si>
-  <si>
-    <t>Manage account</t>
-  </si>
-  <si>
-    <t>Manage comment</t>
-  </si>
-  <si>
-    <t>Config management</t>
-  </si>
-  <si>
-    <t>Profile management</t>
-  </si>
-  <si>
-    <t>Maid management</t>
-  </si>
-  <si>
-    <t>Job request management</t>
-  </si>
-  <si>
-    <t>Recruitment management</t>
-  </si>
-  <si>
-    <t>Apply job request management</t>
-  </si>
-  <si>
     <t>Suggest</t>
+  </si>
+  <si>
+    <t>Report 5 - Test Document</t>
+  </si>
+  <si>
+    <t>Report 5 - Software Implementation</t>
+  </si>
+  <si>
+    <t>5-A</t>
+  </si>
+  <si>
+    <t>5 -B</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Register Account</t>
+  </si>
+  <si>
+    <t>View Job Request</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>View Notifications</t>
+  </si>
+  <si>
+    <t>Manage User</t>
+  </si>
+  <si>
+    <t>Ban Account</t>
+  </si>
+  <si>
+    <t>Unban Account</t>
+  </si>
+  <si>
+    <t>View Requests Statistic</t>
+  </si>
+  <si>
+    <t>View Income Statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Config </t>
+  </si>
+  <si>
+    <t>Send Notifications</t>
+  </si>
+  <si>
+    <t>Apply Job Request</t>
+  </si>
+  <si>
+    <t>Comment Job Request</t>
+  </si>
+  <si>
+    <t>Rate Job Request</t>
+  </si>
+  <si>
+    <t>Edit Customer Profile</t>
+  </si>
+  <si>
+    <t>Extend Recruitment</t>
+  </si>
+  <si>
+    <t>Hide Recruitment</t>
+  </si>
+  <si>
+    <t>Public Recruitment</t>
+  </si>
+  <si>
+    <t>Post Recruitment</t>
+  </si>
+  <si>
+    <t>Edit Recruitment</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>View Customer Statistic</t>
+  </si>
+  <si>
+    <t>View Maid</t>
+  </si>
+  <si>
+    <t>Edit Maid</t>
+  </si>
+  <si>
+    <t>Public Job Request</t>
+  </si>
+  <si>
+    <t>Hide Job Request</t>
+  </si>
+  <si>
+    <t>Extend Job Request</t>
+  </si>
+  <si>
+    <t>Edit Job Request</t>
+  </si>
+  <si>
+    <t>Edit Maid Mediator Profile</t>
+  </si>
+  <si>
+    <t>Post Job Request</t>
+  </si>
+  <si>
+    <t>Active Job Request</t>
+  </si>
+  <si>
+    <t>Active Recruitment</t>
+  </si>
+  <si>
+    <t>Approve Job Request</t>
+  </si>
+  <si>
+    <t>Manage Job Request</t>
+  </si>
+  <si>
+    <t>Manage Applied Job Request</t>
+  </si>
+  <si>
+    <t>View Maid Manager Statistic</t>
+  </si>
+  <si>
+    <t>Report Maid</t>
+  </si>
+  <si>
+    <t>Approve Recruitment</t>
+  </si>
+  <si>
+    <t>Advance Search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,24 +530,6 @@
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -548,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,9 +640,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
@@ -588,12 +660,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -619,22 +685,23 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,17 +709,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -959,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -975,43 +1036,43 @@
     <col min="7" max="7" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="104.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="107.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2"/>
@@ -1020,14 +1081,14 @@
         <v>6</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1035,12 +1096,12 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1050,14 +1111,14 @@
         <v>6</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1065,12 +1126,12 @@
         <v>6</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1080,14 +1141,14 @@
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1095,15 +1156,15 @@
         <v>6</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>30</v>
+      <c r="B8" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
@@ -1114,14 +1175,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="42"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -1129,14 +1190,14 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="42"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -1144,12 +1205,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="42"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1159,44 +1220,44 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="42"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
+      <c r="B12" s="31" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="42">
-        <v>3</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="28" t="s">
-        <v>34</v>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="27" t="s">
-        <v>65</v>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -1204,14 +1265,14 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="27" t="s">
-        <v>66</v>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -1219,14 +1280,14 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="27" t="s">
-        <v>67</v>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -1234,40 +1295,40 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="27" t="s">
-        <v>59</v>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="42"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="28" t="s">
-        <v>68</v>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="42"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="27" t="s">
-        <v>69</v>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
@@ -1275,40 +1336,40 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="42"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="27" t="s">
-        <v>59</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="42"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="28" t="s">
-        <v>35</v>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="42"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="27" t="s">
-        <v>70</v>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1316,14 +1377,14 @@
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="42"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="27" t="s">
-        <v>71</v>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1331,14 +1392,14 @@
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="42"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="27" t="s">
-        <v>72</v>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1346,14 +1407,14 @@
       <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="42"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="27" t="s">
-        <v>73</v>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1361,14 +1422,14 @@
       <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="42"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="27" t="s">
-        <v>74</v>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1376,14 +1437,14 @@
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="42"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="27" t="s">
-        <v>75</v>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1391,40 +1452,40 @@
       <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="42"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="27" t="s">
-        <v>59</v>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="42"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="28" t="s">
-        <v>76</v>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="27" t="s">
-        <v>77</v>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
@@ -1432,14 +1493,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="42"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="27" t="s">
-        <v>78</v>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
@@ -1447,14 +1508,14 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="42"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="27" t="s">
-        <v>60</v>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -1462,14 +1523,14 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="42"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="27" t="s">
-        <v>79</v>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -1477,14 +1538,14 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="42"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="27" t="s">
-        <v>80</v>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -1492,14 +1553,14 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="42"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="27" t="s">
-        <v>81</v>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
@@ -1507,40 +1568,40 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="42"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="27" t="s">
-        <v>59</v>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="42"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="28" t="s">
-        <v>82</v>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="42"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="35" t="s">
-        <v>72</v>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
@@ -1548,14 +1609,14 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="42"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="35" t="s">
-        <v>74</v>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
@@ -1563,14 +1624,14 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="42"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="35" t="s">
-        <v>75</v>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
@@ -1578,40 +1639,40 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="42"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="35" t="s">
-        <v>59</v>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="42"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="28" t="s">
-        <v>83</v>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="42"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="35" t="s">
-        <v>84</v>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1619,14 +1680,14 @@
       <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="42"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="35" t="s">
-        <v>85</v>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1634,14 +1695,14 @@
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="42"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="35" t="s">
-        <v>72</v>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1649,14 +1710,14 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="42"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="35" t="s">
-        <v>86</v>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1664,27 +1725,27 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="42"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="28" t="s">
-        <v>87</v>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="25" t="s">
+        <v>85</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="42"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="35" t="s">
-        <v>88</v>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -1692,14 +1753,14 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="42"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="35" t="s">
-        <v>89</v>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1707,14 +1768,14 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="42"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="35" t="s">
-        <v>90</v>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1722,14 +1783,14 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="42"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -1737,14 +1798,14 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="42"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1752,14 +1813,14 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="42"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1767,31 +1828,31 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="39">
+      <c r="A54" s="30">
         <v>4</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1799,12 +1860,12 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
@@ -1814,12 +1875,12 @@
       <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
@@ -1829,14 +1890,14 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1844,14 +1905,14 @@
       <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="24" t="s">
-        <v>42</v>
+      <c r="A59" s="30"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1859,13 +1920,13 @@
       <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="20"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="2"/>
@@ -1874,27 +1935,27 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="20"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="22" t="s">
-        <v>43</v>
+      <c r="A61" s="30"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="20"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="23" t="s">
-        <v>92</v>
+      <c r="A62" s="30"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
@@ -1902,14 +1963,14 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="31"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="23" t="s">
-        <v>44</v>
+      <c r="A63" s="30"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1917,14 +1978,14 @@
       <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="31"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="23" t="s">
-        <v>93</v>
+      <c r="A64" s="30"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
@@ -1932,16 +1993,14 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="40"/>
-      <c r="C65" s="23" t="s">
-        <v>94</v>
+      <c r="A65" s="30"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
@@ -1949,42 +2008,42 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="31"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="23" t="s">
-        <v>95</v>
+      <c r="A66" s="30"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="20"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="22" t="s">
-        <v>45</v>
+      <c r="A67" s="30"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="20"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="23" t="s">
-        <v>46</v>
+      <c r="A68" s="30"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1992,27 +2051,27 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="20"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="22" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="20"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="23" t="s">
-        <v>91</v>
+      <c r="A70" s="30"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
@@ -2020,29 +2079,33 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="20"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" s="2"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A72" s="20"/>
-      <c r="B72" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>48</v>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75">
+      <c r="A72" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2050,18 +2113,16 @@
       <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A73" s="36">
-        <v>5</v>
-      </c>
-      <c r="B73" s="40"/>
-      <c r="C73" s="8" t="s">
-        <v>47</v>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75">
+      <c r="A73" s="33"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2069,16 +2130,16 @@
       <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A74" s="37"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="8" t="s">
-        <v>107</v>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75">
+      <c r="A74" s="33"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
@@ -2086,50 +2147,50 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11">
-        <v>4</v>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="37"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="2"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11">
-        <v>1</v>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="37"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="2"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11">
-        <v>2</v>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="37"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="8" t="s">
-        <v>110</v>
+      <c r="A77" s="33"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -2137,16 +2198,16 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11">
+      <c r="H77" s="10"/>
+      <c r="I77" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="37"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="8" t="s">
-        <v>111</v>
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
@@ -2154,67 +2215,67 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11">
+      <c r="H78" s="10"/>
+      <c r="I78" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="37"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="8" t="s">
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75">
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="37"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11">
-        <v>4</v>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="37"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11">
-        <v>4</v>
+      <c r="G81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="37"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="8" t="s">
-        <v>81</v>
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2222,48 +2283,50 @@
       <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11">
-        <v>3</v>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="37"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="8" t="s">
-        <v>80</v>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11">
-        <v>2</v>
+      <c r="G83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="37"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="8" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11">
-        <v>4</v>
+      <c r="G84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="37"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="33" t="s">
-        <v>105</v>
+      <c r="A85" s="33"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2271,16 +2334,16 @@
       <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="34">
+      <c r="H85" s="10"/>
+      <c r="I85" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="37"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="8" t="s">
-        <v>106</v>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2288,16 +2351,16 @@
       <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11">
+      <c r="H86" s="10"/>
+      <c r="I86" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="37"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="8" t="s">
-        <v>90</v>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -2305,16 +2368,16 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11">
-        <v>2</v>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="37"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="8" t="s">
-        <v>116</v>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -2322,16 +2385,16 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11">
+      <c r="H88" s="10"/>
+      <c r="I88" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="37"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="9" t="s">
-        <v>49</v>
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
@@ -2339,102 +2402,118 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="19"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" s="2"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="32"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="8" t="s">
-        <v>51</v>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="32"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92" s="2"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="32"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="2"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="19"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="19"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="19"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="8" t="s">
-        <v>104</v>
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
@@ -2442,29 +2521,33 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="19"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="19"/>
-      <c r="B98" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>54</v>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
@@ -2472,16 +2555,16 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="36">
-        <v>6</v>
-      </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="8" t="s">
-        <v>53</v>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -2489,55 +2572,67 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="37"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="37"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="37"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="26" t="s">
-        <v>57</v>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="G102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="37"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="25" t="s">
-        <v>96</v>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2545,59 +2640,67 @@
       <c r="G103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="37"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="25" t="s">
-        <v>97</v>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
+      <c r="G104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="37"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="25" t="s">
-        <v>58</v>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F105" s="2"/>
-      <c r="G105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="37"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="2"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="37"/>
-      <c r="B107" s="40"/>
-      <c r="C107" s="25" t="s">
-        <v>99</v>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
@@ -2605,122 +2708,615 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="37"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="2"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="38"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="B110" s="18"/>
-      <c r="C110" s="4" t="s">
+      <c r="H108" s="10"/>
+      <c r="I108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75">
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.75">
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.75">
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75">
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.75">
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75">
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.75">
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75">
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.75">
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.75">
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.75">
+      <c r="A120" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75">
+      <c r="A121" s="35"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75">
+      <c r="A122" s="35"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75">
+      <c r="A123" s="35"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75">
+      <c r="A124" s="35"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75">
+      <c r="A125" s="35"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75">
+      <c r="A126" s="35"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.75">
+      <c r="A127" s="35"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="1:9" ht="15.75">
+      <c r="A128" s="35"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="1:9" ht="15.75">
+      <c r="A129" s="33">
+        <v>6</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75">
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.75">
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75">
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.75">
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.75">
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75">
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.75">
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75">
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75">
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75">
+      <c r="A139" s="34"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="28"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="B141" s="17"/>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="B142" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" ht="60">
+      <c r="B143" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="17">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" ht="30">
+      <c r="B144" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="B111" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" ht="60">
-      <c r="B112" s="17" t="s">
+      <c r="C144" s="17">
+        <v>2</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="2:3" ht="30">
+      <c r="B145" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="30">
+      <c r="B146" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="30">
+      <c r="B147" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="18">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="2:9" ht="30">
-      <c r="B113" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="18">
-        <v>2</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="2:9" ht="30">
-      <c r="B114" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" ht="30">
-      <c r="B115" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" ht="30">
-      <c r="B116" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" s="29">
+      <c r="C147" s="26">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="B54:B71"/>
+    <mergeCell ref="A54:A71"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="A72:A119"/>
+    <mergeCell ref="B72:B119"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A13:A53"/>
-    <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B53"/>
-    <mergeCell ref="A99:A109"/>
-    <mergeCell ref="B98:B108"/>
-    <mergeCell ref="A73:A89"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B71"/>
-    <mergeCell ref="B72:B97"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A53"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E95 F89:G89 F108:G111 F94:G102 G103:G105 F104:F107 G67:G88 D72:D96 D97:E111 G91:G93 F90:F93 D49:D70 D2:E48 F2:F88 G2:G65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F120:G120 F139:G142 F125:G133 G134:G136 F135:F138 D128:E142 G122:G124 F121:F124 D2:E48 G2:G65 G67:G119 F2:F119 D49:D127 E49:E126">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
